--- a/contratos/contratos-5-2011.xlsx
+++ b/contratos/contratos-5-2011.xlsx
@@ -538,7 +538,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>MOSCA OLGA RAQUEL</t>
@@ -607,10 +607,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>REYES FLAVIA MILENA</t>
@@ -652,7 +652,7 @@
     <t>OBISPO GERMAN ARIEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SAGARNA GUILLERMO HECTOR</t>
@@ -1024,427 +1024,427 @@
     <t>47</t>
   </si>
   <si>
-    <t>1.475,00</t>
-  </si>
-  <si>
-    <t>8.407,90</t>
-  </si>
-  <si>
-    <t>1.460,00</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>4.333,16</t>
-  </si>
-  <si>
-    <t>3.605,00</t>
-  </si>
-  <si>
-    <t>12.421,00</t>
-  </si>
-  <si>
-    <t>6.453,90</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>13.804,80</t>
-  </si>
-  <si>
-    <t>29.540,00</t>
-  </si>
-  <si>
-    <t>134.100,28</t>
-  </si>
-  <si>
-    <t>242,66</t>
-  </si>
-  <si>
-    <t>490,40</t>
-  </si>
-  <si>
-    <t>297,00</t>
-  </si>
-  <si>
-    <t>13.961,67</t>
-  </si>
-  <si>
-    <t>655,00</t>
-  </si>
-  <si>
-    <t>5.580,00</t>
-  </si>
-  <si>
-    <t>495,00</t>
-  </si>
-  <si>
-    <t>20.506,80</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>92,00</t>
-  </si>
-  <si>
-    <t>21.512,59</t>
-  </si>
-  <si>
-    <t>291,34</t>
-  </si>
-  <si>
-    <t>1.437,93</t>
-  </si>
-  <si>
-    <t>327,51</t>
-  </si>
-  <si>
-    <t>73.420,00</t>
-  </si>
-  <si>
-    <t>5.004,00</t>
-  </si>
-  <si>
-    <t>5.325,00</t>
-  </si>
-  <si>
-    <t>734,00</t>
-  </si>
-  <si>
-    <t>2.894,00</t>
-  </si>
-  <si>
-    <t>456,66</t>
-  </si>
-  <si>
-    <t>38.616,83</t>
-  </si>
-  <si>
-    <t>194,00</t>
-  </si>
-  <si>
-    <t>1.857,60</t>
-  </si>
-  <si>
-    <t>1.884,50</t>
-  </si>
-  <si>
-    <t>11,50</t>
-  </si>
-  <si>
-    <t>1.250,00</t>
-  </si>
-  <si>
-    <t>7.611,80</t>
-  </si>
-  <si>
-    <t>922,00</t>
-  </si>
-  <si>
-    <t>66,54</t>
-  </si>
-  <si>
-    <t>199,00</t>
-  </si>
-  <si>
-    <t>2.347,00</t>
-  </si>
-  <si>
-    <t>9,50</t>
-  </si>
-  <si>
-    <t>8,76</t>
-  </si>
-  <si>
-    <t>25,08</t>
-  </si>
-  <si>
-    <t>12.606,40</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>5.220,00</t>
-  </si>
-  <si>
-    <t>99,39</t>
-  </si>
-  <si>
-    <t>427,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>74,40</t>
-  </si>
-  <si>
-    <t>744,85</t>
-  </si>
-  <si>
-    <t>7.540,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>145,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>19.320,00</t>
-  </si>
-  <si>
-    <t>14.413,00</t>
-  </si>
-  <si>
-    <t>348,00</t>
-  </si>
-  <si>
-    <t>7.198,00</t>
-  </si>
-  <si>
-    <t>154,46</t>
-  </si>
-  <si>
-    <t>1.765,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>7,53</t>
-  </si>
-  <si>
-    <t>0,02</t>
-  </si>
-  <si>
-    <t>107.070,00</t>
-  </si>
-  <si>
-    <t>425,00</t>
-  </si>
-  <si>
-    <t>263,55</t>
-  </si>
-  <si>
-    <t>26,57</t>
-  </si>
-  <si>
-    <t>434,50</t>
-  </si>
-  <si>
-    <t>5.732,90</t>
-  </si>
-  <si>
-    <t>2.901,00</t>
-  </si>
-  <si>
-    <t>9.652,00</t>
-  </si>
-  <si>
-    <t>1.011,20</t>
-  </si>
-  <si>
-    <t>13.314,40</t>
-  </si>
-  <si>
-    <t>1.838,20</t>
-  </si>
-  <si>
-    <t>117,79</t>
-  </si>
-  <si>
-    <t>1.599,00</t>
-  </si>
-  <si>
-    <t>471,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.875,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>14.700,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>85,69</t>
-  </si>
-  <si>
-    <t>600,60</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>1.568,00</t>
-  </si>
-  <si>
-    <t>56.658,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.326,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>6.152,66</t>
-  </si>
-  <si>
-    <t>1.910,00</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>5.015,00</t>
-  </si>
-  <si>
-    <t>267,00</t>
-  </si>
-  <si>
-    <t>3.144,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>14.768,48</t>
-  </si>
-  <si>
-    <t>27,00</t>
-  </si>
-  <si>
-    <t>871,58</t>
-  </si>
-  <si>
-    <t>1.880,00</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>4.174,00</t>
-  </si>
-  <si>
-    <t>32,68</t>
-  </si>
-  <si>
-    <t>5,78</t>
-  </si>
-  <si>
-    <t>527,00</t>
-  </si>
-  <si>
-    <t>4.283,55</t>
-  </si>
-  <si>
-    <t>11.844,00</t>
-  </si>
-  <si>
-    <t>115,20</t>
-  </si>
-  <si>
-    <t>2.861,51</t>
-  </si>
-  <si>
-    <t>1.818,63</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>197.625,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>346.864,00</t>
-  </si>
-  <si>
-    <t>146.683,50</t>
-  </si>
-  <si>
-    <t>302.150,00</t>
-  </si>
-  <si>
-    <t>268.416,00</t>
-  </si>
-  <si>
-    <t>360.000,00</t>
-  </si>
-  <si>
-    <t>224.444,00</t>
-  </si>
-  <si>
-    <t>162.000,00</t>
-  </si>
-  <si>
-    <t>878,26</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>3.672,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>617,00</t>
+    <t>1475.00</t>
+  </si>
+  <si>
+    <t>8407.90</t>
+  </si>
+  <si>
+    <t>1460.00</t>
+  </si>
+  <si>
+    <t>24.50</t>
+  </si>
+  <si>
+    <t>4333.16</t>
+  </si>
+  <si>
+    <t>3605.00</t>
+  </si>
+  <si>
+    <t>12421.00</t>
+  </si>
+  <si>
+    <t>6453.90</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>13804.80</t>
+  </si>
+  <si>
+    <t>29540.00</t>
+  </si>
+  <si>
+    <t>134100.28</t>
+  </si>
+  <si>
+    <t>242.66</t>
+  </si>
+  <si>
+    <t>490.40</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>13961.67</t>
+  </si>
+  <si>
+    <t>655.00</t>
+  </si>
+  <si>
+    <t>5580.00</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>20506.80</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>21512.59</t>
+  </si>
+  <si>
+    <t>291.34</t>
+  </si>
+  <si>
+    <t>1437.93</t>
+  </si>
+  <si>
+    <t>327.51</t>
+  </si>
+  <si>
+    <t>73420.00</t>
+  </si>
+  <si>
+    <t>5004.00</t>
+  </si>
+  <si>
+    <t>5325.00</t>
+  </si>
+  <si>
+    <t>734.00</t>
+  </si>
+  <si>
+    <t>2894.00</t>
+  </si>
+  <si>
+    <t>456.66</t>
+  </si>
+  <si>
+    <t>38616.83</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>1857.60</t>
+  </si>
+  <si>
+    <t>1884.50</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>1250.00</t>
+  </si>
+  <si>
+    <t>7611.80</t>
+  </si>
+  <si>
+    <t>922.00</t>
+  </si>
+  <si>
+    <t>66.54</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>2347.00</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>12606.40</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>5220.00</t>
+  </si>
+  <si>
+    <t>99.39</t>
+  </si>
+  <si>
+    <t>427.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>74.40</t>
+  </si>
+  <si>
+    <t>744.85</t>
+  </si>
+  <si>
+    <t>7540.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>19320.00</t>
+  </si>
+  <si>
+    <t>14413.00</t>
+  </si>
+  <si>
+    <t>348.00</t>
+  </si>
+  <si>
+    <t>7198.00</t>
+  </si>
+  <si>
+    <t>154.46</t>
+  </si>
+  <si>
+    <t>1765.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>107070.00</t>
+  </si>
+  <si>
+    <t>425.00</t>
+  </si>
+  <si>
+    <t>263.55</t>
+  </si>
+  <si>
+    <t>26.57</t>
+  </si>
+  <si>
+    <t>434.50</t>
+  </si>
+  <si>
+    <t>5732.90</t>
+  </si>
+  <si>
+    <t>2901.00</t>
+  </si>
+  <si>
+    <t>9652.00</t>
+  </si>
+  <si>
+    <t>1011.20</t>
+  </si>
+  <si>
+    <t>13314.40</t>
+  </si>
+  <si>
+    <t>1838.20</t>
+  </si>
+  <si>
+    <t>117.79</t>
+  </si>
+  <si>
+    <t>1599.00</t>
+  </si>
+  <si>
+    <t>471.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1875.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>14700.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>85.69</t>
+  </si>
+  <si>
+    <t>600.60</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>1568.00</t>
+  </si>
+  <si>
+    <t>56658.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1326.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>6152.66</t>
+  </si>
+  <si>
+    <t>1910.00</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>5015.00</t>
+  </si>
+  <si>
+    <t>267.00</t>
+  </si>
+  <si>
+    <t>3144.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>14768.48</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>871.58</t>
+  </si>
+  <si>
+    <t>1880.00</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>4174.00</t>
+  </si>
+  <si>
+    <t>32.68</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>527.00</t>
+  </si>
+  <si>
+    <t>4283.55</t>
+  </si>
+  <si>
+    <t>11844.00</t>
+  </si>
+  <si>
+    <t>115.20</t>
+  </si>
+  <si>
+    <t>2861.51</t>
+  </si>
+  <si>
+    <t>1818.63</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>197625.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>346864.00</t>
+  </si>
+  <si>
+    <t>146683.50</t>
+  </si>
+  <si>
+    <t>302150.00</t>
+  </si>
+  <si>
+    <t>268416.00</t>
+  </si>
+  <si>
+    <t>360000.00</t>
+  </si>
+  <si>
+    <t>224444.00</t>
+  </si>
+  <si>
+    <t>162000.00</t>
+  </si>
+  <si>
+    <t>878.26</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>3672.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>617.00</t>
   </si>
 </sst>
 </file>
